--- a/project/templates/Usability test_case.xlsx
+++ b/project/templates/Usability test_case.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/Project-KTPM/project/templates/HIệu chỉnh /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongnhat/Desktop/Project-KTPM/project/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400D3D3D-B6EA-6040-8D73-2BFD186F0288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119B37C4-15DA-8F46-AADA-DC52DFD072B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" tabRatio="821" activeTab="6" xr2:uid="{54D1C333-A8F3-504F-8D67-28F9DF72E520}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20080" tabRatio="821" activeTab="5" xr2:uid="{54D1C333-A8F3-504F-8D67-28F9DF72E520}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
     <sheet name="Test case List" sheetId="2" r:id="rId2"/>
-    <sheet name="TestDataModule1" sheetId="8" r:id="rId3"/>
-    <sheet name="Module1" sheetId="3" r:id="rId4"/>
-    <sheet name="Module2" sheetId="4" r:id="rId5"/>
-    <sheet name="Module3" sheetId="7" r:id="rId6"/>
-    <sheet name="Module4" sheetId="9" r:id="rId7"/>
+    <sheet name="Module1" sheetId="3" r:id="rId3"/>
+    <sheet name="Module2" sheetId="4" r:id="rId4"/>
+    <sheet name="Module3" sheetId="7" r:id="rId5"/>
+    <sheet name="Module4" sheetId="9" r:id="rId6"/>
+    <sheet name="TestData" sheetId="8" r:id="rId7"/>
     <sheet name="Test Report" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Module1!$A$8:$H$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Module2!$A$8:$H$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Module3!$A$8:$H$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Module1!$A$8:$H$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Module2!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Module3!$A$7:$H$9</definedName>
     <definedName name="ACTION">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -119,215 +119,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{C207F8D6-3BB3-F842-825C-656ED68ADD93}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
-          </rPr>
-          <t xml:space="preserve">Pass
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
-          </rPr>
-          <t xml:space="preserve">Fail
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
-          </rPr>
-          <t xml:space="preserve">Untested
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
-          </rPr>
-          <t xml:space="preserve">N/A
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{BBA6CB0E-92E0-1A48-B33E-C65C78314FE2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
-          </rPr>
-          <t xml:space="preserve">Pass
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
-          </rPr>
-          <t xml:space="preserve">Fail
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
-          </rPr>
-          <t xml:space="preserve">Untested
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
-          </rPr>
-          <t xml:space="preserve">N/A
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{2C2E3129-D98A-E04B-8878-3D7B6FBD505F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
-          </rPr>
-          <t xml:space="preserve">Pass
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
-          </rPr>
-          <t xml:space="preserve">Fail
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
-          </rPr>
-          <t xml:space="preserve">Untested
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
-          </rPr>
-          <t xml:space="preserve">N/A
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Times New Roman"/>
-            <family val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="110">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -433,12 +226,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Test date</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
     <t>TEST REPORT</t>
   </si>
   <si>
@@ -472,156 +259,18 @@
     <t>&lt;List of documents which are referred in this version.&gt;</t>
   </si>
   <si>
-    <t>Test data</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
     <t>Module3</t>
   </si>
   <si>
-    <t>TestData01</t>
-  </si>
-  <si>
-    <t>TestData02</t>
-  </si>
-  <si>
-    <t>Invalid credentials</t>
-  </si>
-  <si>
-    <t>Test Data ID</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Account Status</t>
-  </si>
-  <si>
-    <t>customer01</t>
-  </si>
-  <si>
-    <t>cust@123</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>customer01@mail.com</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Valid customer account</t>
-  </si>
-  <si>
-    <t>admin01</t>
-  </si>
-  <si>
-    <t>admin@123</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>admin01@mail.com</t>
-  </si>
-  <si>
-    <t>Valid admin account</t>
-  </si>
-  <si>
-    <t>customer02</t>
-  </si>
-  <si>
-    <t>wrongpass</t>
-  </si>
-  <si>
-    <t>customer02@mail.com</t>
-  </si>
-  <si>
-    <t>Invalid password</t>
-  </si>
-  <si>
-    <t>invalidUser</t>
-  </si>
-  <si>
-    <t>TestData03</t>
-  </si>
-  <si>
-    <t>TestData04</t>
-  </si>
-  <si>
-    <t>TestData05</t>
-  </si>
-  <si>
-    <t>TestData06</t>
-  </si>
-  <si>
-    <t>TestData07</t>
-  </si>
-  <si>
-    <t>TestData08</t>
-  </si>
-  <si>
-    <t>TestData09</t>
-  </si>
-  <si>
-    <t>TestData10</t>
-  </si>
-  <si>
-    <t>TestData11</t>
-  </si>
-  <si>
     <t>User Authentication</t>
   </si>
   <si>
-    <t>Application Feature</t>
-  </si>
-  <si>
     <t>Sign Up</t>
   </si>
   <si>
-    <t>Verify user can successfully create a new account</t>
-  </si>
-  <si>
-    <t>Test Scenario</t>
-  </si>
-  <si>
-    <t>Test Steps</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Verify error handling for existing email</t>
-  </si>
-  <si>
-    <t>1. Open "Sign In" popup.
-2. Switch to Sign Up mode.
-3. Enter an email that is already registered.
-4. Enter valid name and password.
-5. Click "Create account".</t>
-  </si>
-  <si>
-    <t>Verify error handling for invalid credentials</t>
-  </si>
-  <si>
     <t>TC-03</t>
   </si>
   <si>
@@ -643,24 +292,15 @@
     <t>Explore Menu</t>
   </si>
   <si>
-    <t>Verify category filtering works</t>
-  </si>
-  <si>
     <t>TC-06</t>
   </si>
   <si>
-    <t>Verify deselecting a category</t>
-  </si>
-  <si>
     <t>TC-07</t>
   </si>
   <si>
     <t>Add to Cart</t>
   </si>
   <si>
-    <t>Verify adding item to cart from menu</t>
-  </si>
-  <si>
     <t>TC-08</t>
   </si>
   <si>
@@ -679,12 +319,6 @@
     <t>Proceed</t>
   </si>
   <si>
-    <t>Verify cart page content</t>
-  </si>
-  <si>
-    <t>Verify navigation to checkout</t>
-  </si>
-  <si>
     <t>Module4</t>
   </si>
   <si>
@@ -698,9 +332,6 @@
   </si>
   <si>
     <t>My Orders</t>
-  </si>
-  <si>
-    <t>Verify order history visibility</t>
   </si>
   <si>
     <t>Testcase Name</t>
@@ -732,9 +363,6 @@
     <t>Clear error message Email already exists is displayed.</t>
   </si>
   <si>
-    <t>Verify user can log in with valid credentials</t>
-  </si>
-  <si>
     <t>1. Click Sign In.
 2. Enter valid email and password.
 3. Click Login.</t>
@@ -751,38 +379,6 @@
     <t>Invalid credentials message is shown and user remains on login screen.</t>
   </si>
   <si>
-    <t>1. Scroll to Explore Menu.
-2. Click a category (e.g. Salad).
-3. Observe results.</t>
-  </si>
-  <si>
-    <t>Only items in selected category are displayed.</t>
-  </si>
-  <si>
-    <t>1. Click selected category again or choose All.</t>
-  </si>
-  <si>
-    <t>All menu items are displayed.</t>
-  </si>
-  <si>
-    <t>1. Locate a food item.
-2. Click + button.</t>
-  </si>
-  <si>
-    <t>Item added, quantity counter shows 1 and cart icon updates.</t>
-  </si>
-  <si>
-    <t>Verify adjusting item quantity</t>
-  </si>
-  <si>
-    <t>1. Add item to cart.
-2. Click + to increase.
-3. Click - to decrease.</t>
-  </si>
-  <si>
-    <t>Quantity updates immediately.</t>
-  </si>
-  <si>
     <t>1. Add items to cart.
 2. Click cart icon.</t>
   </si>
@@ -796,9 +392,6 @@
     <t>User navigates to Place Order page.</t>
   </si>
   <si>
-    <t>Verify mandatory field validation</t>
-  </si>
-  <si>
     <t>1. Leave a required field empty.
 2. Attempt to proceed.</t>
   </si>
@@ -806,9 +399,6 @@
     <t>System highlights missing field and blocks submission.</t>
   </si>
   <si>
-    <t>Verify successful order placement</t>
-  </si>
-  <si>
     <t>1. Fill all delivery fields.
 2. Click Proceed to Payment.</t>
   </si>
@@ -826,6 +416,61 @@
   </si>
   <si>
     <t>TC-11</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+  </si>
+  <si>
+    <t>Test Case Procedure</t>
+  </si>
+  <si>
+    <t>Expected Output</t>
+  </si>
+  <si>
+    <t>Test data</t>
+  </si>
+  <si>
+    <t>1. Browser is opened and URL is accessible.
+2. The email address used for registration does not exist in the system.</t>
+  </si>
+  <si>
+    <t>A registered account already exists in the database (e.g., existing_user@mail.com)</t>
+  </si>
+  <si>
+    <t>TD1</t>
+  </si>
+  <si>
+    <t>TD2</t>
+  </si>
+  <si>
+    <t>TD3</t>
+  </si>
+  <si>
+    <t>TD4</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>Module Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module1 </t>
+  </si>
+  <si>
+    <t>Test requirement</t>
+  </si>
+  <si>
+    <t>&lt;Brief description about requirements which are tested in this sheet&gt;</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Number of Test cases</t>
   </si>
 </sst>
 </file>
@@ -835,7 +480,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -945,12 +590,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="10"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color indexed="8"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -975,28 +614,10 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1018,52 +639,18 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color indexed="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color indexed="17"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFCCCCCC"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFCCCCCC"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1088,38 +675,8 @@
         <bgColor indexed="56"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="40">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1394,52 +951,6 @@
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1606,61 +1117,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1820,40 +1285,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -1871,8 +1308,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1884,30 +1321,30 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1922,7 +1359,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1936,278 +1373,97 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2231,34 +1487,16 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2686,13 +1924,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="200" t="s">
+      <c r="C2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -2703,11 +1941,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="201" t="s">
+      <c r="C4" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="201"/>
-      <c r="E4" s="201"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
@@ -2717,36 +1955,36 @@
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="201" t="s">
+      <c r="C5" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
       <c r="F5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="202" t="s">
+      <c r="B6" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="203" t="str">
+      <c r="C6" s="128" t="str">
         <f>C5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="D6" s="203"/>
-      <c r="E6" s="203"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
       <c r="F6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="202"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
-      <c r="E7" s="203"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2792,7 +2030,7 @@
       <c r="E12" s="23"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="20" customFormat="1" ht="21.75" customHeight="1">
@@ -2893,39 +2131,39 @@
       <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="206" t="s">
+      <c r="B3" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="206"/>
-      <c r="D3" s="207" t="str">
+      <c r="C3" s="131"/>
+      <c r="D3" s="132" t="str">
         <f>Cover!C4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="206" t="s">
+      <c r="B4" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="206"/>
-      <c r="D4" s="207" t="str">
+      <c r="C4" s="131"/>
+      <c r="D4" s="132" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
     </row>
     <row r="5" spans="2:6" s="38" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="204" t="s">
+      <c r="B5" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="204"/>
-      <c r="D5" s="205" t="s">
+      <c r="C5" s="129"/>
+      <c r="D5" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="39"/>
@@ -2946,7 +2184,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="D8" s="45" t="s">
         <v>21</v>
@@ -2963,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D9" s="50" t="s">
         <v>24</v>
@@ -2976,9 +2214,9 @@
         <v>2</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="89" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="50"/>
@@ -2989,10 +2227,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="100" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D11" s="90" t="s">
+        <v>45</v>
       </c>
       <c r="E11" s="50"/>
       <c r="F11" s="51"/>
@@ -3002,10 +2240,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="100" t="s">
-        <v>115</v>
+        <v>52</v>
+      </c>
+      <c r="D12" s="90" t="s">
+        <v>64</v>
       </c>
       <c r="E12" s="50"/>
       <c r="F12" s="51"/>
@@ -3097,493 +2335,268 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC9DE56-4F34-3847-9DE3-3FE1ACFF2F2A}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D16ABC5-B443-FF41-BA73-04E67E6728A8}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="33.5" customWidth="1"/>
-    <col min="6" max="6" width="28.5" customWidth="1"/>
-    <col min="7" max="7" width="33.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="20">
-      <c r="A1" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="101" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="101" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="101" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="101" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="101" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20">
-      <c r="A2" s="102" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="102" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="102" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="102" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="102" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="102" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="102" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20">
-      <c r="A3" s="102" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="102" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="102" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="102" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="102" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20">
-      <c r="A4" s="102" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="102" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="102" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="102" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="102" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20">
-      <c r="A5" s="102" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="102" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="102" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="102" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20">
-      <c r="A6" s="102" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20">
-      <c r="A7" s="102" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20">
-      <c r="A8" s="102" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20">
-      <c r="A9" s="102" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20">
-      <c r="A10" s="102" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20">
-      <c r="A11" s="102" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20">
-      <c r="A12" s="102" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D16ABC5-B443-FF41-BA73-04E67E6728A8}">
-  <dimension ref="A1:J33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16" style="142" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="142" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.5" style="142" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.83203125" style="142" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57" style="142" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="142" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="142" customWidth="1"/>
-    <col min="8" max="8" width="11" style="142" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" style="151" customWidth="1"/>
-    <col min="10" max="10" width="0" style="142" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="142"/>
+    <col min="1" max="1" width="16" style="104" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="104" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="104" customWidth="1"/>
+    <col min="4" max="4" width="38" style="104" customWidth="1"/>
+    <col min="5" max="5" width="31.5" style="104" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="104" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="104" customWidth="1"/>
+    <col min="8" max="8" width="11" style="104" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" style="104" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="104"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="124" customFormat="1">
-      <c r="A1" s="118"/>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="123"/>
-    </row>
-    <row r="2" spans="1:10" s="124" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124" t="s">
+    <row r="1" spans="1:9" s="99" customFormat="1">
+      <c r="A1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="98"/>
+    </row>
+    <row r="2" spans="1:9" s="99" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="116" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="134" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="99" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="124" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="126"/>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="124" t="s">
+    <row r="3" spans="1:9" s="99" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="117" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="134" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="99" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="124" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="125"/>
-      <c r="B4" s="210"/>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="210"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="127"/>
-    </row>
-    <row r="5" spans="1:10" s="124" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="128"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="124" t="s">
+    <row r="4" spans="1:9" s="99" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="100"/>
+    </row>
+    <row r="5" spans="1:9" s="99" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="118" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="136" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="136"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="99" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="124" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="133"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="124" t="s">
+    <row r="6" spans="1:9" s="99" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="121">
+        <f>COUNTIF(G9:G991,"Pass")</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="122">
+        <f>COUNTIF(G9:G991,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="122">
+        <f>E6-D6-B6-A6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="123">
+        <f>COUNTIF(G$9:G$991,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="133">
+        <v>4</v>
+      </c>
+      <c r="F6" s="133"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="99" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="124" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="132"/>
-    </row>
-    <row r="8" spans="1:10" s="124" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="103" t="s">
+    <row r="7" spans="1:9" s="99" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+    </row>
+    <row r="8" spans="1:9" ht="28">
+      <c r="A8" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="103" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="103" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="103" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="103" t="s">
+      <c r="B8" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="109" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="109" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="103" t="s">
+      <c r="H8" s="109" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="109" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="85">
+      <c r="A9" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="137"/>
-    </row>
-    <row r="9" spans="1:10" s="141" customFormat="1" ht="85">
-      <c r="A9" s="138" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="138" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="138" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="139" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="138" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="140"/>
-    </row>
-    <row r="10" spans="1:10" s="141" customFormat="1" ht="85">
-      <c r="A10" s="138" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="138" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="139" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="138" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
-    </row>
-    <row r="11" spans="1:10" ht="51">
-      <c r="A11" s="138" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="138" t="s">
+      <c r="C9" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="113"/>
+    </row>
+    <row r="10" spans="1:9" ht="85">
+      <c r="A10" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="115" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="114"/>
+    </row>
+    <row r="11" spans="1:9" ht="51">
+      <c r="A11" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="138" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="139" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="138" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-    </row>
-    <row r="12" spans="1:10" ht="51">
-      <c r="A12" s="138" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="138" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="138" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="139" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="138" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="143"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="149"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="138"/>
-      <c r="B14" s="150"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="147"/>
-    </row>
-    <row r="15" spans="1:10" s="156" customFormat="1" ht="47" customHeight="1">
-      <c r="A15" s="152"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="155"/>
-    </row>
-    <row r="16" spans="1:10" s="156" customFormat="1" ht="47" customHeight="1">
-      <c r="A16" s="138"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="155"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="138"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="149"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="138"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="147"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="138"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="147"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="D29" s="161"/>
-    </row>
-    <row r="30" spans="1:9" ht="85">
-      <c r="D30" s="162" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="D31" s="161"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="D32" s="161"/>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="161"/>
+      <c r="B11" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="114"/>
+      <c r="D11" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="107" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="114"/>
+    </row>
+    <row r="12" spans="1:9" ht="51">
+      <c r="A12" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="114"/>
+      <c r="D12" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="111" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3594,9 +2607,17 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F144" xr:uid="{0926D9D0-1AE7-204E-AFDC-71D73AD07237}">
-      <formula1>$J$2:$J$6</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G8" xr:uid="{E9D5AC89-0910-B247-A77A-EA7A9C350142}">
+      <formula1>#REF!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F7 F13:F124 F1" xr:uid="{0926D9D0-1AE7-204E-AFDC-71D73AD07237}">
+      <formula1>$H$2:$H$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{3EEE7306-FAF3-CD4C-9F91-4DB14BD3C26F}">
+      <formula1>$I$2:$I$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -3609,273 +2630,256 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F31288-1135-FA43-BA31-A098B66B5034}">
-  <dimension ref="A1:K17"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F31288-1135-FA43-BA31-A098B66B5034}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="109" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="142" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="142" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="142" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" style="142" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" style="142" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="142" customWidth="1"/>
-    <col min="7" max="7" width="9" style="142"/>
-    <col min="8" max="8" width="17.6640625" style="142" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" style="151" customWidth="1"/>
-    <col min="10" max="10" width="0" style="142" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="142"/>
+    <col min="1" max="1" width="16.1640625" style="104" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="104" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="104" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" style="104" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" style="104" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="104" customWidth="1"/>
+    <col min="7" max="7" width="9" style="104"/>
+    <col min="8" max="8" width="13.83203125" style="104" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="104" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="104"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="124" customFormat="1">
-      <c r="A1" s="118"/>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="123"/>
-    </row>
-    <row r="2" spans="1:11" s="124" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124" t="s">
+    <row r="1" spans="1:9" s="99" customFormat="1">
+      <c r="A1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="97"/>
+    </row>
+    <row r="2" spans="1:9" s="99" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="116" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="99" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="124" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="126"/>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="124" t="s">
+    <row r="3" spans="1:9" s="99" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="117" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="134" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="99" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="124" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="125"/>
-      <c r="B4" s="210"/>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="210"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="127"/>
-    </row>
-    <row r="5" spans="1:11" s="124" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="128"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="124" t="s">
+    <row r="4" spans="1:9" s="99" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="100"/>
+    </row>
+    <row r="5" spans="1:9" s="99" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="118" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="136" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="136"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="99" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="124" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="163"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="124" t="s">
+    <row r="6" spans="1:9" s="99" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="121">
+        <f>COUNTIF(G9:G991,"Pass")</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="122">
+        <f>COUNTIF(G9:G991,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="122">
+        <f>E6-D6-B6-A6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="123">
+        <f>COUNTIF(G$9:G$991,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="133">
+        <v>4</v>
+      </c>
+      <c r="F6" s="133"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="99" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="124" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="132"/>
-    </row>
-    <row r="8" spans="1:11" s="124" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="164" t="s">
+    <row r="7" spans="1:9" s="99" customFormat="1" ht="15" customHeight="1">
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="164" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="164" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="164" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="165" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="165" t="s">
+      <c r="B8" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="109" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="109" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="165" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="164" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="137"/>
-    </row>
-    <row r="9" spans="1:11" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="166"/>
-      <c r="B9" s="166"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="169"/>
-    </row>
-    <row r="10" spans="1:11" s="141" customFormat="1" ht="121" customHeight="1">
-      <c r="A10" s="104" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="104" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="104" t="s">
-        <v>101</v>
-      </c>
+      <c r="H8" s="109" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="109" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="85">
+      <c r="A9" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="112"/>
+      <c r="D9" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="113"/>
+    </row>
+    <row r="10" spans="1:9" ht="85">
+      <c r="A10" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="114"/>
       <c r="D10" s="107" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="104" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="104" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="104" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="104" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="114"/>
+      <c r="G10" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="104" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-    </row>
-    <row r="12" spans="1:11" ht="34">
-      <c r="A12" s="104" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="104" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="104" t="s">
-        <v>106</v>
-      </c>
+      <c r="I10" s="114"/>
+    </row>
+    <row r="11" spans="1:9" ht="51">
+      <c r="A11" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="114"/>
+      <c r="D11" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="107" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="114"/>
+      <c r="G11" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="114"/>
+    </row>
+    <row r="12" spans="1:9" ht="51">
+      <c r="A12" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="114"/>
       <c r="D12" s="107" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="104" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-    </row>
-    <row r="13" spans="1:11" s="124" customFormat="1" ht="51">
-      <c r="A13" s="104" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="104" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="104" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="107" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="104" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="115"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="149"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="106"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="F16" s="154"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-    </row>
-    <row r="17" spans="6:9">
-      <c r="F17" s="170"/>
-      <c r="I17" s="149"/>
+        <v>78</v>
+      </c>
+      <c r="E12" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="114"/>
+      <c r="G12" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3886,9 +2890,17 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F144" xr:uid="{244364E1-8292-B946-885E-05FD1E349DEA}">
-      <formula1>$J$2:$J$6</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G8 F13:F135 F7 F1" xr:uid="{244364E1-8292-B946-885E-05FD1E349DEA}">
+      <formula1>$H$2:$H$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F10:F12" xr:uid="{C9B782CC-AA75-5D4B-8857-0BE342C0A930}">
+      <formula1>#REF!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{039370F1-3B00-804D-9125-E01D40E0C056}">
+      <formula1>$I$2:$I$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -3898,17 +2910,16 @@
     <oddHeader>&amp;LFacilitate_Test Case\Company&amp;Rv1.0</oddHeader>
     <oddFooter>&amp;L&amp;"Tahoma,Regular"&amp;8 02ae-BM/PM/HDCV/FSOFT v2/0&amp;C&amp;"Tahoma,Regular"&amp;10Internal use&amp;R&amp;"tahoma,Regular"&amp;8&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B863EDBE-B62B-A64E-ADB6-983CCDC8C430}">
-  <dimension ref="A1:J18"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B863EDBE-B62B-A64E-ADB6-983CCDC8C430}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -3917,270 +2928,199 @@
     <col min="2" max="2" width="19.1640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="32.1640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15" style="8" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" style="8" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="31.83203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" style="57" customWidth="1"/>
-    <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="8"/>
+    <col min="8" max="8" width="15" style="8" customWidth="1"/>
+    <col min="9" max="9" width="18" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="60" customFormat="1">
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="59"/>
-    </row>
-    <row r="2" spans="1:10" s="60" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="109"/>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60" t="s">
+    <row r="1" spans="1:9" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="116" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="57" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="60" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="109"/>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="60" t="s">
+    <row r="2" spans="1:9" s="57" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A2" s="117" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="134" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="57" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="60" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="109"/>
-      <c r="B4" s="212"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="61"/>
-    </row>
-    <row r="5" spans="1:10" s="60" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="111"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="213"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="60" t="s">
+    <row r="3" spans="1:9" s="57" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" s="57" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="118" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="136" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="136"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="57" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="60" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="114"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="214"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="60" t="s">
+    <row r="5" spans="1:9" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="121">
+        <f>COUNTIF(G7:G981,"Pass")</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="122">
+        <f>COUNTIF(G7:G981,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="122">
+        <f>E5-D5-B5-A5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="123">
+        <f>COUNTIF(G$7:G$981,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="133">
+        <v>2</v>
+      </c>
+      <c r="F5" s="133"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="60" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-    </row>
-    <row r="8" spans="1:10" s="60" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="65" t="s">
+    <row r="6" spans="1:9" s="57" customFormat="1" ht="15" customHeight="1">
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+    </row>
+    <row r="7" spans="1:9" ht="14">
+      <c r="A7" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="66" t="s">
+      <c r="B7" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="109" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="109" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="110" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="109" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="109" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="57" customFormat="1" ht="76" customHeight="1">
+      <c r="A8" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="112"/>
+      <c r="D8" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="124"/>
+      <c r="G8" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="113"/>
+    </row>
+    <row r="9" spans="1:9" ht="34">
+      <c r="A9" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="67"/>
-    </row>
-    <row r="9" spans="1:10" s="70" customFormat="1" ht="85.5" customHeight="1">
-      <c r="A9" s="138" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="138" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="138" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="138" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="138" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9"/>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="1:10" s="70" customFormat="1" ht="85.5" customHeight="1">
-      <c r="A10" s="138" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="138" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="138" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="138" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="138" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10"/>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="1:10" ht="14">
-      <c r="A11" s="171"/>
-      <c r="B11" s="171"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="171"/>
-      <c r="I11"/>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="172"/>
-      <c r="B12" s="172"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="69"/>
-    </row>
-    <row r="13" spans="1:10" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="175"/>
-      <c r="B13" s="175"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="68"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="172"/>
-      <c r="B14" s="172"/>
-      <c r="C14" s="172"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="174"/>
-      <c r="I14" s="69"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="172"/>
-      <c r="B15" s="172"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176"/>
-    </row>
-    <row r="16" spans="1:10" s="60" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="175"/>
-      <c r="B16" s="175"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="68"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="172"/>
-      <c r="B17" s="172"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="69"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="176"/>
-      <c r="B18" s="176"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="176"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="176"/>
+      <c r="B9" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="114"/>
+      <c r="D9" s="108" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="107" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="91"/>
+      <c r="G9" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F145" xr:uid="{FF2EA11B-1EE0-EC40-9391-63EEB3CA1301}">
-      <formula1>$J$2:$J$6</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7 F6 F1:F2 F9:F135" xr:uid="{FF2EA11B-1EE0-EC40-9391-63EEB3CA1301}">
+      <formula1>$H$1:$H$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -4190,280 +3130,253 @@
     <oddHeader>&amp;LFacilitate_Test Case\Company&amp;Rv1.0</oddHeader>
     <oddFooter>&amp;L&amp;"Tahoma,Regular"&amp;8 02ae-BM/PM/HDCV/FSOFT v2/0&amp;C&amp;"Tahoma,Regular"&amp;10Internal use&amp;R&amp;"Tahoma,Regular"&amp;8&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FC5F77-0338-9646-BD39-9132227AEECC}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="103" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="103" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5" style="103" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.1640625" style="103" customWidth="1"/>
+    <col min="5" max="5" width="46.83203125" style="103" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="103" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="103"/>
+    <col min="8" max="8" width="15" style="103" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" style="103" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="103"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28">
+      <c r="A1" s="116" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+    </row>
+    <row r="2" spans="1:9" ht="42">
+      <c r="A2" s="117" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="134" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="118" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="136" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="136"/>
+    </row>
+    <row r="5" spans="1:9" ht="17" thickBot="1">
+      <c r="A5" s="121">
+        <f>COUNTIF(G:G,"Pass")</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="122">
+        <f>COUNTIF(G:G,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="122">
+        <f>E5-D5-B5-A5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="123">
+        <f>COUNTIF(G:G,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="133">
+        <v>3</v>
+      </c>
+      <c r="F5" s="133"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="106"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="105"/>
+    </row>
+    <row r="7" spans="1:9" ht="28">
+      <c r="A7" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="109" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="109" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="110" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="109" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="109" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="34">
+      <c r="A8" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="112"/>
+      <c r="D8" s="107" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="113"/>
+    </row>
+    <row r="9" spans="1:9" ht="34">
+      <c r="A9" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="114"/>
+      <c r="D9" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="114"/>
+      <c r="G9" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="114"/>
+    </row>
+    <row r="10" spans="1:9" ht="17">
+      <c r="A10" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="114"/>
+      <c r="D10" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="114"/>
+      <c r="G10" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="114"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B3:F3"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2 F6 F9:F10" xr:uid="{B3CF1181-2A48-A949-BE1A-ACBD98E6DC64}">
+      <formula1>#REF!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7" xr:uid="{9464E18D-EFFD-F44A-829A-5F40A184AA5C}">
+      <formula1>$H$2:$H$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FC5F77-0338-9646-BD39-9132227AEECC}">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC9DE56-4F34-3847-9DE3-3FE1ACFF2F2A}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="138" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="138" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5" style="138" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" style="138" customWidth="1"/>
-    <col min="5" max="5" width="46.83203125" style="138" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" style="138" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="138" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="138" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="138"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="104"/>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="190"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="192"/>
-      <c r="B3" s="215"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="104"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="192"/>
-      <c r="B4" s="215"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="194"/>
-      <c r="J4" s="104"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="192"/>
-      <c r="B5" s="215"/>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="215"/>
-      <c r="F5" s="215"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="104"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="177"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="216"/>
-      <c r="F6" s="216"/>
-      <c r="G6" s="193"/>
-      <c r="H6" s="193"/>
-      <c r="I6" s="194"/>
-      <c r="J6" s="104"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="104"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="190"/>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-    </row>
-    <row r="9" spans="1:10" ht="34">
-      <c r="A9" s="180" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="180" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="180" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="180" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="181" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="181" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="181" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="180" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="182"/>
-      <c r="B10" s="182"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="184"/>
-    </row>
-    <row r="11" spans="1:10" ht="34">
-      <c r="A11" s="138" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="138" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="138" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="139" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="138" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="34">
-      <c r="A12" s="138" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="138" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="138" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="139" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12" s="138" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="138" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="138" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="138" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="138" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" s="138" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="185"/>
-      <c r="B14" s="186"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="188"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="195"/>
-      <c r="B15" s="196"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="197"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="198"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="198"/>
-      <c r="D16" s="198"/>
-      <c r="E16" s="198"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="159"/>
-      <c r="B17" s="159"/>
-      <c r="C17" s="159"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="189"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="159"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F4 F8:F18" xr:uid="{554640DE-54C6-7347-B351-8BDE9FBBDA06}">
-      <formula1>$J$2:$J$6</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
+  <sheetData/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4472,7 +3385,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -4486,278 +3399,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="220" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
+      <c r="B1" s="139" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="1:8" ht="12" customHeight="1">
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="207" t="s">
+      <c r="C3" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="207"/>
-      <c r="E3" s="218" t="s">
+      <c r="D3" s="132"/>
+      <c r="E3" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="218"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="207" t="s">
+      <c r="C4" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="207"/>
-      <c r="E4" s="218" t="s">
+      <c r="D4" s="132"/>
+      <c r="E4" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="218"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="65"/>
     </row>
     <row r="5" spans="1:8" ht="12" customHeight="1">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="207" t="str">
+      <c r="C5" s="132" t="str">
         <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_Test Report_vx.x</v>
       </c>
-      <c r="D5" s="207"/>
-      <c r="E5" s="218" t="s">
+      <c r="D5" s="132"/>
+      <c r="E5" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="218"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="77" t="s">
+      <c r="F5" s="137"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="67" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A6" s="61"/>
+      <c r="B6" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="138" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A6" s="71"/>
-      <c r="B6" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="219" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="219"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A7" s="71"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" s="13"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="73"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
     </row>
     <row r="10" spans="1:8" ht="14">
-      <c r="A10" s="79"/>
-      <c r="B10" s="80" t="s">
+      <c r="A10" s="69"/>
+      <c r="B10" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="82" t="s">
+      <c r="C10" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="84" t="s">
-        <v>40</v>
+      <c r="H10" s="74" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="79"/>
-      <c r="B11" s="85">
+      <c r="A11" s="69"/>
+      <c r="B11" s="75">
         <v>1</v>
       </c>
-      <c r="C11" s="86">
+      <c r="C11" s="76" t="str">
         <f>Module1!B2</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="87">
+        <v xml:space="preserve">Module1 </v>
+      </c>
+      <c r="D11" s="77">
         <f>Module1!A6</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="87">
+        <v>4</v>
+      </c>
+      <c r="E11" s="77">
         <f>Module1!B6</f>
         <v>0</v>
       </c>
-      <c r="F11" s="87">
+      <c r="F11" s="77">
         <f>Module1!C6</f>
         <v>0</v>
       </c>
-      <c r="G11" s="88">
+      <c r="G11" s="78">
         <f>Module1!D6</f>
         <v>0</v>
       </c>
-      <c r="H11" s="89">
+      <c r="H11" s="79">
         <f>Module1!E6</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="79"/>
-      <c r="B12" s="85">
+      <c r="A12" s="69"/>
+      <c r="B12" s="75">
         <v>2</v>
       </c>
-      <c r="C12" s="86">
+      <c r="C12" s="76" t="str">
         <f>Module2!B2</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="87">
+        <v>Module2</v>
+      </c>
+      <c r="D12" s="77">
         <f>Module2!A6</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="87">
+        <v>4</v>
+      </c>
+      <c r="E12" s="77">
         <f>Module2!B6</f>
         <v>0</v>
       </c>
-      <c r="F12" s="87">
+      <c r="F12" s="77">
         <f>Module2!C6</f>
         <v>0</v>
       </c>
-      <c r="G12" s="88">
+      <c r="G12" s="78">
         <f>Module2!D6</f>
         <v>0</v>
       </c>
-      <c r="H12" s="89">
+      <c r="H12" s="79">
         <f>Module2!E6</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="69"/>
+      <c r="B13" s="75">
+        <v>3</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="77">
+        <f>Module3!A5</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="77">
+        <f>Module3!B5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="79"/>
-      <c r="B13" s="85">
+      <c r="F13" s="77">
+        <f>Module3!C5</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="77">
+        <f>Module3!D5</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="79">
+        <f>Module3!E5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="69"/>
+      <c r="B14" s="75">
+        <v>4</v>
+      </c>
+      <c r="C14" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="77">
+        <f>Module4!A5</f>
         <v>3</v>
       </c>
-      <c r="C13" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="89"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="79"/>
-      <c r="B14" s="85">
-        <v>4</v>
-      </c>
-      <c r="C14" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="89"/>
+      <c r="E14" s="77">
+        <f>Module4!B5</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="77">
+        <f>Module4!C5</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="77">
+        <f>Module4!D5</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="79">
+        <f>Module4!E5</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="90"/>
-      <c r="C15" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="92">
+      <c r="B15" s="80"/>
+      <c r="C15" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="82">
         <f>SUM(D9:D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="92">
+        <v>13</v>
+      </c>
+      <c r="E15" s="82">
         <f>SUM(E9:E14)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="92">
+      <c r="F15" s="82">
         <f>SUM(F9:F14)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="92">
+      <c r="G15" s="82">
         <f>SUM(G9:G14)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="93">
+      <c r="H15" s="83">
         <f>SUM(H9:H14)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="94"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
+      <c r="B16" s="84"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="88">
+        <f>(D15+E15)*100/(H15-G15)</f>
+        <v>100</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="60"/>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="98" t="e">
-        <f>(D15+E15)*100/(H15-G15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="64"/>
-    </row>
-    <row r="18" spans="3:8">
-      <c r="C18" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="98" t="e">
+      <c r="E18" s="88">
         <f>D15*100/(H15-G15)</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="64"/>
+        <v>41</v>
+      </c>
+      <c r="H18" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/project/templates/Usability test_case.xlsx
+++ b/project/templates/Usability test_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongnhat/Desktop/Project-KTPM/project/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenthimaithanh/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119B37C4-15DA-8F46-AADA-DC52DFD072B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DE7E77-C381-FB40-B082-14B101213576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20080" tabRatio="821" activeTab="5" xr2:uid="{54D1C333-A8F3-504F-8D67-28F9DF72E520}"/>
+    <workbookView xWindow="960" yWindow="3020" windowWidth="28800" windowHeight="16180" tabRatio="821" activeTab="5" xr2:uid="{54D1C333-A8F3-504F-8D67-28F9DF72E520}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="144">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -471,6 +471,108 @@
   </si>
   <si>
     <t>Number of Test cases</t>
+  </si>
+  <si>
+    <t>TD5</t>
+  </si>
+  <si>
+    <t>TD6</t>
+  </si>
+  <si>
+    <t>TD7</t>
+  </si>
+  <si>
+    <t>TD8</t>
+  </si>
+  <si>
+    <t>TD9</t>
+  </si>
+  <si>
+    <t>TD10</t>
+  </si>
+  <si>
+    <t>TD11</t>
+  </si>
+  <si>
+    <t>TD12</t>
+  </si>
+  <si>
+    <t>TD13</t>
+  </si>
+  <si>
+    <t>Test Data ID</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Account Status</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>TestData01</t>
+  </si>
+  <si>
+    <t>customer01</t>
+  </si>
+  <si>
+    <t>cust@123</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>customer01@mail.com</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Valid customer account</t>
+  </si>
+  <si>
+    <t>TestData02</t>
+  </si>
+  <si>
+    <t>admin01</t>
+  </si>
+  <si>
+    <t>admin@123</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin01@mail.com</t>
+  </si>
+  <si>
+    <t>Valid admin account</t>
+  </si>
+  <si>
+    <t>TestData03</t>
+  </si>
+  <si>
+    <t>customer02</t>
+  </si>
+  <si>
+    <t>wrongpass</t>
+  </si>
+  <si>
+    <t>customer02@mail.com</t>
+  </si>
+  <si>
+    <t>Invalid password</t>
   </si>
 </sst>
 </file>
@@ -480,7 +582,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -649,8 +751,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -673,6 +786,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="62"/>
         <bgColor indexed="56"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1125,7 +1244,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1462,9 +1581,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1508,6 +1624,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1924,13 +2042,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -1941,11 +2059,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
@@ -1955,36 +2073,36 @@
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
       <c r="F5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="128" t="str">
+      <c r="C6" s="127" t="str">
         <f>C5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
       <c r="F6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="127"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2131,39 +2249,39 @@
       <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132" t="str">
+      <c r="C3" s="130"/>
+      <c r="D3" s="131" t="str">
         <f>Cover!C4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="132" t="str">
+      <c r="C4" s="130"/>
+      <c r="D4" s="131" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
     </row>
     <row r="5" spans="2:6" s="38" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="129"/>
-      <c r="D5" s="130" t="s">
+      <c r="C5" s="128"/>
+      <c r="D5" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="39"/>
@@ -2340,7 +2458,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:A12"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -2371,13 +2489,13 @@
       <c r="A2" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="98"/>
       <c r="H2" s="99" t="s">
         <v>26</v>
@@ -2387,13 +2505,13 @@
       <c r="A3" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
       <c r="G3" s="98"/>
       <c r="H3" s="99" t="s">
         <v>27</v>
@@ -2403,11 +2521,11 @@
       <c r="A4" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
       <c r="G4" s="98"/>
       <c r="H4" s="100"/>
     </row>
@@ -2424,10 +2542,10 @@
       <c r="D5" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="136" t="s">
+      <c r="E5" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="136"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="101"/>
       <c r="H5" s="99" t="s">
         <v>30</v>
@@ -2450,10 +2568,10 @@
         <f>COUNTIF(G$9:G$991,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="133">
+      <c r="E6" s="132">
         <v>4</v>
       </c>
-      <c r="F6" s="133"/>
+      <c r="F6" s="132"/>
       <c r="G6" s="101"/>
       <c r="H6" s="99" t="s">
         <v>29</v>
@@ -2636,7 +2754,7 @@
   <sheetViews>
     <sheetView zoomScale="109" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:A12"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -2666,13 +2784,13 @@
       <c r="A2" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="98"/>
       <c r="H2" s="99" t="s">
         <v>26</v>
@@ -2682,13 +2800,13 @@
       <c r="A3" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
       <c r="G3" s="98"/>
       <c r="H3" s="99" t="s">
         <v>27</v>
@@ -2698,11 +2816,11 @@
       <c r="A4" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
       <c r="G4" s="98"/>
       <c r="H4" s="100"/>
     </row>
@@ -2719,10 +2837,10 @@
       <c r="D5" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="136" t="s">
+      <c r="E5" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="136"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="101"/>
       <c r="H5" s="99" t="s">
         <v>30</v>
@@ -2745,10 +2863,10 @@
         <f>COUNTIF(G$9:G$991,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="133">
+      <c r="E6" s="132">
         <v>4</v>
       </c>
-      <c r="F6" s="133"/>
+      <c r="F6" s="132"/>
       <c r="G6" s="101"/>
       <c r="H6" s="99" t="s">
         <v>29</v>
@@ -2803,7 +2921,9 @@
       <c r="E9" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="111"/>
+      <c r="F9" s="111" t="s">
+        <v>110</v>
+      </c>
       <c r="G9" s="111" t="s">
         <v>26</v>
       </c>
@@ -2826,7 +2946,9 @@
       <c r="E10" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="114"/>
+      <c r="F10" s="111" t="s">
+        <v>111</v>
+      </c>
       <c r="G10" s="111" t="s">
         <v>26</v>
       </c>
@@ -2849,7 +2971,9 @@
       <c r="E11" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="114"/>
+      <c r="F11" s="111" t="s">
+        <v>112</v>
+      </c>
       <c r="G11" s="111" t="s">
         <v>26</v>
       </c>
@@ -2872,7 +2996,9 @@
       <c r="E12" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="114"/>
+      <c r="F12" s="111" t="s">
+        <v>113</v>
+      </c>
       <c r="G12" s="111" t="s">
         <v>26</v>
       </c>
@@ -2890,13 +3016,9 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G8 F13:F135 F7 F1" xr:uid="{244364E1-8292-B946-885E-05FD1E349DEA}">
       <formula1>$H$2:$H$6</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F10:F12" xr:uid="{C9B782CC-AA75-5D4B-8857-0BE342C0A930}">
-      <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{039370F1-3B00-804D-9125-E01D40E0C056}">
@@ -2919,7 +3041,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:A9"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -2940,13 +3062,13 @@
       <c r="A1" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
       <c r="G1" s="38"/>
       <c r="H1" s="57" t="s">
         <v>26</v>
@@ -2956,13 +3078,13 @@
       <c r="A2" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="38"/>
       <c r="H2" s="57" t="s">
         <v>27</v>
@@ -2972,11 +3094,11 @@
       <c r="A3" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
       <c r="G3" s="38"/>
       <c r="H3" s="58"/>
     </row>
@@ -2993,10 +3115,10 @@
       <c r="D4" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="136" t="s">
+      <c r="E4" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="136"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="59"/>
       <c r="H4" s="57" t="s">
         <v>30</v>
@@ -3019,10 +3141,10 @@
         <f>COUNTIF(G$7:G$981,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="133">
+      <c r="E5" s="132">
         <v>2</v>
       </c>
-      <c r="F5" s="133"/>
+      <c r="F5" s="132"/>
       <c r="G5" s="59"/>
       <c r="H5" s="57" t="s">
         <v>29</v>
@@ -3078,7 +3200,9 @@
       <c r="E8" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="124"/>
+      <c r="F8" s="92" t="s">
+        <v>114</v>
+      </c>
       <c r="G8" s="111" t="s">
         <v>26</v>
       </c>
@@ -3101,7 +3225,9 @@
       <c r="E9" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="91"/>
+      <c r="F9" s="92" t="s">
+        <v>115</v>
+      </c>
       <c r="G9" s="111" t="s">
         <v>26</v>
       </c>
@@ -3118,8 +3244,9 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
   </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7 F6 F1:F2 F9:F135" xr:uid="{FF2EA11B-1EE0-EC40-9391-63EEB3CA1301}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G7 F6 F1:F2 F10:F135" xr:uid="{FF2EA11B-1EE0-EC40-9391-63EEB3CA1301}">
       <formula1>$H$1:$H$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3138,7 +3265,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3159,35 +3286,35 @@
       <c r="A1" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
     </row>
     <row r="2" spans="1:9" ht="42">
       <c r="A2" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="118" t="s">
@@ -3202,10 +3329,10 @@
       <c r="D4" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="136" t="s">
+      <c r="E4" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="136"/>
+      <c r="F4" s="135"/>
     </row>
     <row r="5" spans="1:9" ht="17" thickBot="1">
       <c r="A5" s="121">
@@ -3224,10 +3351,10 @@
         <f>COUNTIF(G:G,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="133">
+      <c r="E5" s="132">
         <v>3</v>
       </c>
-      <c r="F5" s="133"/>
+      <c r="F5" s="132"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="106"/>
@@ -3280,7 +3407,9 @@
       <c r="E8" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="111"/>
+      <c r="F8" s="111" t="s">
+        <v>116</v>
+      </c>
       <c r="G8" s="111" t="s">
         <v>26</v>
       </c>
@@ -3303,7 +3432,9 @@
       <c r="E9" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="114"/>
+      <c r="F9" s="111" t="s">
+        <v>117</v>
+      </c>
       <c r="G9" s="111" t="s">
         <v>26</v>
       </c>
@@ -3326,7 +3457,9 @@
       <c r="E10" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="114"/>
+      <c r="F10" s="111" t="s">
+        <v>118</v>
+      </c>
       <c r="G10" s="111" t="s">
         <v>26</v>
       </c>
@@ -3343,8 +3476,9 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="B3:F3"/>
   </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2 F6 F9:F10" xr:uid="{B3CF1181-2A48-A949-BE1A-ACBD98E6DC64}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2 F6" xr:uid="{B3CF1181-2A48-A949-BE1A-ACBD98E6DC64}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3359,10 +3493,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC9DE56-4F34-3847-9DE3-3FE1ACFF2F2A}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD12"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -3373,8 +3507,102 @@
     <col min="4" max="4" width="33.5" customWidth="1"/>
     <col min="5" max="5" width="21.83203125" customWidth="1"/>
     <col min="6" max="6" width="33.83203125" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:7" ht="20">
+      <c r="A2" s="140" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="140" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="140" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="140" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="140" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="140" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="140" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20">
+      <c r="A3" s="139" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="139" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="139" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="139" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="139" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="139" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="139" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20">
+      <c r="A4" s="139" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="139" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="139" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="139" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="139" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20">
+      <c r="A5" s="139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="139" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="139" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="139" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="139" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="139" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="139" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3385,7 +3613,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -3399,15 +3627,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="61"/>
@@ -3423,14 +3651,14 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="132"/>
-      <c r="E3" s="137" t="s">
+      <c r="D3" s="131"/>
+      <c r="E3" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="137"/>
+      <c r="F3" s="136"/>
       <c r="G3" s="64"/>
       <c r="H3" s="65"/>
     </row>
@@ -3438,14 +3666,14 @@
       <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="137" t="s">
+      <c r="D4" s="131"/>
+      <c r="E4" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="137"/>
+      <c r="F4" s="136"/>
       <c r="G4" s="64"/>
       <c r="H4" s="65"/>
     </row>
@@ -3453,15 +3681,15 @@
       <c r="B5" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="132" t="str">
+      <c r="C5" s="131" t="str">
         <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_Test Report_vx.x</v>
       </c>
-      <c r="D5" s="132"/>
-      <c r="E5" s="137" t="s">
+      <c r="D5" s="131"/>
+      <c r="E5" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="137"/>
+      <c r="F5" s="136"/>
       <c r="G5" s="64"/>
       <c r="H5" s="67" t="s">
         <v>34</v>
@@ -3472,14 +3700,14 @@
       <c r="B6" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="61"/>
